--- a/va_facility_data_2025-02-20/Carl Vinson Veterans' Administration Medical Center - Facility Data.xlsx"; filename*=UTF-8''Carl%20Vinson%20Veterans%27%20Administration%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Carl Vinson Veterans' Administration Medical Center - Facility Data.xlsx"; filename*=UTF-8''Carl%20Vinson%20Veterans%27%20Administration%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R6542c884c5494e93ab8e63c1506648f3"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Reddc4be4724949c48bb75c7100ff96ff"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rd43fe4d52a88491e95bc27633cdee517"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R3fa39a5b12594b63b3290c7af8246eb0"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Ra6c46609da3845b7aa6f90ef6a23d7b6"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R10ff9b275e714910b24350fb369004f8"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R7921d338f99f4d29acf6fdcf867c2b42"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R30040524dc04407d9df45cd7b2d13691"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R3deb3c465d854695ae754caf72b843b6"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rb96ad0c45c484b49aaab71a045e968cc"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R404ffd533711400d8953ddc13daddefc"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R8465c0ed3c21402c86a1ba4fab071990"/>
   </x:sheets>
 </x:workbook>
 </file>
